--- a/experiments/sample sequences/map/map.xlsx
+++ b/experiments/sample sequences/map/map.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="Rotate" sheetId="2" r:id="rId2"/>
     <sheet name="Scale" sheetId="3" r:id="rId3"/>
-    <sheet name="Skew" sheetId="4" r:id="rId4"/>
+    <sheet name="Shear" sheetId="4" r:id="rId4"/>
     <sheet name="Translate" sheetId="5" r:id="rId5"/>
     <sheet name="Fracture" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -258,52 +258,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,6 +445,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Raw Data'!$B$4:$B$8</c:f>
@@ -472,22 +476,22 @@
             <c:numRef>
               <c:f>'Raw Data'!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1647.2</c:v>
+                  <c:v>1.9413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>355.65499999999997</c:v>
+                  <c:v>0.98280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.981899999999996</c:v>
+                  <c:v>0.63060000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84.367099999999994</c:v>
+                  <c:v>0.50109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.527799999999999</c:v>
+                  <c:v>0.41389999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,6 +539,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Raw Data'!$D$4:$D$8</c:f>
@@ -563,22 +570,22 @@
             <c:numRef>
               <c:f>'Raw Data'!$E$4:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>79.034800000000004</c:v>
+                  <c:v>2.0990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1719.3</c:v>
+                  <c:v>1.0580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>168.59809999999999</c:v>
+                  <c:v>0.53459999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>366.8571</c:v>
+                  <c:v>0.34370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>256.8922</c:v>
+                  <c:v>0.36109999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,6 +633,227 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BB16B01A-BCB7-40AA-9B88-CAFBF8CF610E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{453C05EB-AFF8-4CCF-879D-6E8114580356}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5AB65AD5-D70F-48B2-A591-B024187C3B27}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A86B67BE-C2FE-47CE-A77A-DA14BE1C7820}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{61DEB79B-8FD1-4FEC-AF1F-1D5ED424BDA3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Raw Data'!$F$4:$F$8</c:f>
@@ -654,27 +882,52 @@
             <c:numRef>
               <c:f>'Raw Data'!$G$4:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>78.954800000000006</c:v>
+                  <c:v>2.1135999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.495000000000001</c:v>
+                  <c:v>1.0583</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7519</c:v>
+                  <c:v>0.53220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1271</c:v>
+                  <c:v>0.27039999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31219999999999998</c:v>
+                  <c:v>0.13950000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Raw Data'!$A$4:$A$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -684,12 +937,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1437321136"/>
-        <c:axId val="1714409024"/>
+        <c:axId val="1594598944"/>
+        <c:axId val="1594609280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1437321136"/>
+        <c:axId val="1594598944"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -715,7 +969,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -728,7 +982,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -748,7 +1002,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -786,7 +1040,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -801,12 +1055,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714409024"/>
+        <c:crossAx val="1594609280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1714409024"/>
+        <c:axId val="1594609280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +1087,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -846,7 +1100,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Error</a:t>
                 </a:r>
               </a:p>
@@ -866,7 +1120,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -882,7 +1136,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -904,7 +1158,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -919,7 +1173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1437321136"/>
+        <c:crossAx val="1594598944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -947,7 +1201,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1143,22 +1397,22 @@
             <c:numRef>
               <c:f>'Raw Data'!$I$4:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>516770</c:v>
+                  <c:v>126.51090000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129050</c:v>
+                  <c:v>66.551199999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30234</c:v>
+                  <c:v>36.565300000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3709.2</c:v>
+                  <c:v>22.924299999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1169.5999999999999</c:v>
+                  <c:v>13.418799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,22 +1491,22 @@
             <c:numRef>
               <c:f>'Raw Data'!$K$4:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>518400</c:v>
+                  <c:v>119.58710000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132220</c:v>
+                  <c:v>59.737400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33145</c:v>
+                  <c:v>29.876999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8586.7999999999993</c:v>
+                  <c:v>14.6854</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3096.1</c:v>
+                  <c:v>6.9577999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,6 +1557,227 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D8C8C279-C876-4660-A36C-C60488C573EA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4D69B212-B4EE-4293-B759-B86C97C27773}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4DFFAC5A-B93A-4426-B7EF-40B01F68F465}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{486ED268-342E-4E72-926A-5ED38843186D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{19532DE2-5ECF-4FDC-902E-929CA6751210}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Raw Data'!$L$4:$L$8</c:f>
@@ -1331,27 +1806,52 @@
             <c:numRef>
               <c:f>'Raw Data'!$M$4:$M$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>518400</c:v>
+                  <c:v>120.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128050</c:v>
+                  <c:v>60.499200000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31200</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7400</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2050</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Raw Data'!$A$4:$A$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1361,12 +1861,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1711351616"/>
-        <c:axId val="1711353792"/>
+        <c:axId val="1594606560"/>
+        <c:axId val="1594596768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1711351616"/>
+        <c:axId val="1594606560"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1392,7 +1893,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1405,7 +1906,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -1425,7 +1926,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1463,7 +1964,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1478,12 +1979,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1711353792"/>
+        <c:crossAx val="1594596768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1711353792"/>
+        <c:axId val="1594596768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,7 +2011,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1523,7 +2024,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Error</a:t>
                 </a:r>
               </a:p>
@@ -1543,7 +2044,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1559,7 +2060,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1581,7 +2082,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1596,7 +2097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1711351616"/>
+        <c:crossAx val="1594606560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,7 +2125,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1707,7 +2208,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Skew</a:t>
+              <a:t>Shear</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1792,6 +2293,253 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5207947573655963E-2"/>
+                  <c:y val="6.7834973753280806E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C4DDC1F3-3367-4D50-AD95-F6596FFC5677}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0704940970112418E-2"/>
+                  <c:y val="4.0751640419947471E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B3F3B62E-96F8-4B1F-B104-E7A5B69CFB0F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8929098744778064E-2"/>
+                  <c:y val="-3.0081692913385864E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{35A8230C-3199-4A2E-B57B-2A7F27B98C6A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8929099818507509E-2"/>
+                  <c:y val="5.5334973753280843E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{22A00186-AFF7-4858-85A3-FF1CF8234C15}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3436295040669115E-3"/>
+                  <c:y val="-2.1748359580052494E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DC6000A8-5B09-46C5-AF46-A6B61DD09CDB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Raw Data'!$N$4:$N$8</c:f>
@@ -1820,27 +2568,52 @@
             <c:numRef>
               <c:f>'Raw Data'!$O$4:$O$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5149.3999999999996</c:v>
+                  <c:v>2.6981999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>396.42</c:v>
+                  <c:v>2.6936</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>322.20999999999998</c:v>
+                  <c:v>2.7101000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>432.26</c:v>
+                  <c:v>2.6181000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>429.67</c:v>
+                  <c:v>2.9354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Raw Data'!$A$4:$A$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1914,22 +2687,22 @@
             <c:numRef>
               <c:f>'Raw Data'!$Q$4:$Q$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.04</c:v>
+                  <c:v>0.11219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1877</c:v>
+                  <c:v>0.1003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>753.04</c:v>
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.53</c:v>
+                  <c:v>0.1799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>778.55</c:v>
+                  <c:v>0.8972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,13 +2781,13 @@
             <c:numRef>
               <c:f>'Raw Data'!$S$4:$S$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5184</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2038,12 +2811,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1711361408"/>
-        <c:axId val="1711346176"/>
+        <c:axId val="1594601120"/>
+        <c:axId val="1594602208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1711361408"/>
+        <c:axId val="1594601120"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2069,7 +2843,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2082,7 +2856,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -2102,7 +2876,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2140,7 +2914,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2155,12 +2929,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1711346176"/>
+        <c:crossAx val="1594602208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1711346176"/>
+        <c:axId val="1594602208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2961,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2200,7 +2974,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Error</a:t>
                 </a:r>
               </a:p>
@@ -2220,7 +2994,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2236,7 +3010,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2258,7 +3032,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2273,7 +3047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1711361408"/>
+        <c:crossAx val="1594601120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2301,7 +3075,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2497,22 +3271,22 @@
             <c:numRef>
               <c:f>'Raw Data'!$U$4:$U$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>687270</c:v>
+                  <c:v>9.9990000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171200</c:v>
+                  <c:v>9.9951000000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42435</c:v>
+                  <c:v>9.9984999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11011</c:v>
+                  <c:v>9.9984999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2718.2</c:v>
+                  <c:v>10.000299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,22 +3365,22 @@
             <c:numRef>
               <c:f>'Raw Data'!$W$4:$W$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>98829</c:v>
+                  <c:v>9.9999000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21563</c:v>
+                  <c:v>9.9999000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1711.1</c:v>
+                  <c:v>9.9995999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1469.2</c:v>
+                  <c:v>9.9951000000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1071.0999999999999</c:v>
+                  <c:v>10.128500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,6 +3431,247 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5017729951330615E-2"/>
+                  <c:y val="-4.6001356002748885E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8FBE1043-4925-4168-A2B8-46FB98834B64}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.556737241755783E-3"/>
+                  <c:y val="-4.1819414547953529E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CF903956-8CD7-49C4-BD9B-4B7A9C79FD5A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5017729951330515E-2"/>
+                  <c:y val="-2.509164872877212E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{93B8B85A-957F-46B2-85AF-1B5B671FEF2D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.556737241755783E-3"/>
+                  <c:y val="-4.391038527535121E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B4B11FF7-2B43-4BC2-A9BF-11816B0DF9EA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="5.4365238912339589E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B290B184-9159-469C-8DAF-C0393CAF5693}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Raw Data'!$X$4:$X$8</c:f>
@@ -2685,27 +3700,52 @@
             <c:numRef>
               <c:f>'Raw Data'!$Y$4:$Y$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5051.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Raw Data'!$A$4:$A$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>16</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2715,12 +3755,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1714412288"/>
-        <c:axId val="1714405760"/>
+        <c:axId val="1594605472"/>
+        <c:axId val="1594597312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1714412288"/>
+        <c:axId val="1594605472"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2746,7 +3787,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2759,7 +3800,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
@@ -2779,7 +3820,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2817,7 +3858,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2832,12 +3873,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714405760"/>
+        <c:crossAx val="1594597312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1714405760"/>
+        <c:axId val="1594597312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +3905,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2877,7 +3918,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Error</a:t>
                 </a:r>
               </a:p>
@@ -2897,7 +3938,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2913,7 +3954,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2935,7 +3976,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2950,7 +3991,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714412288"/>
+        <c:crossAx val="1594605472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2978,7 +4019,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3535,11 +4576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1755370976"/>
-        <c:axId val="1755371520"/>
+        <c:axId val="1594603840"/>
+        <c:axId val="1594607648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1755370976"/>
+        <c:axId val="1594603840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3652,12 +4693,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1755371520"/>
+        <c:crossAx val="1594607648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1755371520"/>
+        <c:axId val="1594607648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,7 +4811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1755370976"/>
+        <c:crossAx val="1594603840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6630,10 +7671,11 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6644,7 +7686,8 @@
     <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6655,7 +7698,8 @@
     <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6666,7 +7710,8 @@
     <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -6674,7 +7719,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6685,7 +7730,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9277597" cy="6048994"/>
+    <xdr:ext cx="9302338" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6712,7 +7757,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9277597" cy="6048994"/>
+    <xdr:ext cx="9302338" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6739,7 +7784,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9277597" cy="6048994"/>
+    <xdr:ext cx="9313333" cy="6096000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6766,7 +7811,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9277597" cy="6048994"/>
+    <xdr:ext cx="9302338" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6793,7 +7838,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9277597" cy="6048994"/>
+    <xdr:ext cx="9302338" cy="6073734"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7081,8 +8126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AE8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7104,201 +8149,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="15"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
       <c r="S1" s="15"/>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
       <c r="Y1" s="15"/>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="10"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="22"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="16"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7" t="s">
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="13" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7" t="s">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
+      <c r="W2" s="18"/>
+      <c r="X2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="16"/>
+      <c r="Y2" s="21"/>
       <c r="Z2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7" t="s">
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7" t="s">
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="2"/>
+      <c r="AE2" s="23"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="17" t="s">
+      <c r="Y3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="Z3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7306,446 +8351,446 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="8">
         <v>94.67</v>
       </c>
-      <c r="C4" s="18">
-        <v>1647.2</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="C4" s="10">
+        <v>1.9413</v>
+      </c>
+      <c r="D4" s="8">
         <v>6.62</v>
       </c>
-      <c r="E4" s="18">
-        <v>79.034800000000004</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="E4" s="10">
+        <v>2.0990000000000002</v>
+      </c>
+      <c r="F4" s="8">
         <v>267.58999999999997</v>
       </c>
       <c r="G4" s="11">
-        <v>78.954800000000006</v>
-      </c>
-      <c r="H4" s="12">
+        <v>2.1135999999999999</v>
+      </c>
+      <c r="H4" s="5">
         <v>103.12</v>
       </c>
-      <c r="I4" s="18">
-        <v>516770</v>
-      </c>
-      <c r="J4" s="18">
+      <c r="I4" s="10">
+        <v>126.51090000000001</v>
+      </c>
+      <c r="J4" s="8">
         <v>6.77</v>
       </c>
-      <c r="K4" s="18">
-        <v>518400</v>
-      </c>
-      <c r="L4" s="18">
+      <c r="K4" s="10">
+        <v>119.58710000000001</v>
+      </c>
+      <c r="L4" s="8">
         <v>273.10000000000002</v>
       </c>
       <c r="M4" s="11">
-        <v>518400</v>
-      </c>
-      <c r="N4" s="12">
+        <v>120.5</v>
+      </c>
+      <c r="N4" s="5">
         <v>113.71</v>
       </c>
-      <c r="O4" s="18">
-        <v>5149.3999999999996</v>
-      </c>
-      <c r="P4" s="18">
+      <c r="O4" s="10">
+        <v>2.6981999999999999</v>
+      </c>
+      <c r="P4" s="8">
         <v>6.69</v>
       </c>
-      <c r="Q4" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="R4" s="18">
+      <c r="Q4" s="10">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="R4" s="8">
         <v>269.52</v>
       </c>
       <c r="S4" s="11">
         <v>0</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="8">
         <v>79.790000000000006</v>
       </c>
-      <c r="U4" s="18">
-        <v>687270</v>
-      </c>
-      <c r="V4" s="18">
+      <c r="U4" s="10">
+        <v>9.9990000000000006</v>
+      </c>
+      <c r="V4" s="8">
         <v>6.92</v>
       </c>
-      <c r="W4" s="18">
-        <v>98829</v>
-      </c>
-      <c r="X4" s="18">
+      <c r="W4" s="10">
+        <v>9.9999000000000002</v>
+      </c>
+      <c r="X4" s="8">
         <v>268.98</v>
       </c>
       <c r="Y4" s="11">
-        <v>5051.5</v>
-      </c>
-      <c r="Z4" s="12">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="5">
         <v>74.599999999999994</v>
       </c>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8">
         <v>6.37</v>
       </c>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18">
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8">
         <v>267.7</v>
       </c>
-      <c r="AE4" s="18"/>
+      <c r="AE4" s="8"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="8">
         <v>23.8</v>
       </c>
-      <c r="C5" s="18">
-        <v>355.65499999999997</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="C5" s="10">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="D5" s="8">
         <v>1.64</v>
       </c>
-      <c r="E5" s="18">
-        <v>1719.3</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="E5" s="10">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="F5" s="8">
         <v>66.83</v>
       </c>
       <c r="G5" s="11">
-        <v>19.495000000000001</v>
-      </c>
-      <c r="H5" s="12">
+        <v>1.0583</v>
+      </c>
+      <c r="H5" s="5">
         <v>26.02</v>
       </c>
-      <c r="I5" s="18">
-        <v>129050</v>
-      </c>
-      <c r="J5" s="18">
+      <c r="I5" s="10">
+        <v>66.551199999999994</v>
+      </c>
+      <c r="J5" s="8">
         <v>1.62</v>
       </c>
-      <c r="K5" s="18">
-        <v>132220</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="K5" s="10">
+        <v>59.737400000000001</v>
+      </c>
+      <c r="L5" s="8">
         <v>67.989999999999995</v>
       </c>
       <c r="M5" s="11">
-        <v>128050</v>
-      </c>
-      <c r="N5" s="12">
+        <v>60.499200000000002</v>
+      </c>
+      <c r="N5" s="5">
         <v>28.57</v>
       </c>
-      <c r="O5" s="18">
-        <v>396.42</v>
-      </c>
-      <c r="P5" s="18">
+      <c r="O5" s="10">
+        <v>2.6936</v>
+      </c>
+      <c r="P5" s="8">
         <v>1.61</v>
       </c>
-      <c r="Q5" s="18">
-        <v>1877</v>
-      </c>
-      <c r="R5" s="18">
+      <c r="Q5" s="10">
+        <v>0.1003</v>
+      </c>
+      <c r="R5" s="8">
         <v>67.25</v>
       </c>
       <c r="S5" s="11">
-        <v>5184</v>
-      </c>
-      <c r="T5" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="T5" s="8">
         <v>20.29</v>
       </c>
-      <c r="U5" s="18">
-        <v>171200</v>
-      </c>
-      <c r="V5" s="18">
+      <c r="U5" s="10">
+        <v>9.9951000000000008</v>
+      </c>
+      <c r="V5" s="8">
         <v>1.69</v>
       </c>
-      <c r="W5" s="18">
-        <v>21563</v>
-      </c>
-      <c r="X5" s="18">
+      <c r="W5" s="10">
+        <v>9.9999000000000002</v>
+      </c>
+      <c r="X5" s="8">
         <v>67.010000000000005</v>
       </c>
       <c r="Y5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="5">
         <v>18.73</v>
       </c>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18">
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8">
         <v>1.61</v>
       </c>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18">
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8">
         <v>67.180000000000007</v>
       </c>
-      <c r="AE5" s="18"/>
+      <c r="AE5" s="8"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="8">
         <v>6.09</v>
       </c>
-      <c r="C6" s="18">
-        <v>91.981899999999996</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="C6" s="10">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.44</v>
       </c>
-      <c r="E6" s="18">
-        <v>168.59809999999999</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="E6" s="10">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="F6" s="8">
         <v>16.8</v>
       </c>
       <c r="G6" s="11">
-        <v>4.7519</v>
-      </c>
-      <c r="H6" s="12">
+        <v>0.53220000000000001</v>
+      </c>
+      <c r="H6" s="5">
         <v>6.75</v>
       </c>
-      <c r="I6" s="18">
-        <v>30234</v>
-      </c>
-      <c r="J6" s="18">
+      <c r="I6" s="10">
+        <v>36.565300000000001</v>
+      </c>
+      <c r="J6" s="8">
         <v>0.39</v>
       </c>
-      <c r="K6" s="18">
-        <v>33145</v>
-      </c>
-      <c r="L6" s="18">
+      <c r="K6" s="10">
+        <v>29.876999999999999</v>
+      </c>
+      <c r="L6" s="8">
         <v>17.05</v>
       </c>
       <c r="M6" s="11">
-        <v>31200</v>
-      </c>
-      <c r="N6" s="12">
+        <v>30.5</v>
+      </c>
+      <c r="N6" s="5">
         <v>7.4</v>
       </c>
-      <c r="O6" s="18">
-        <v>322.20999999999998</v>
-      </c>
-      <c r="P6" s="18">
+      <c r="O6" s="10">
+        <v>2.7101000000000002</v>
+      </c>
+      <c r="P6" s="8">
         <v>0.4</v>
       </c>
-      <c r="Q6" s="18">
-        <v>753.04</v>
-      </c>
-      <c r="R6" s="18">
+      <c r="Q6" s="10">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="R6" s="8">
         <v>16.88</v>
       </c>
       <c r="S6" s="11">
         <v>0</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="8">
         <v>5.23</v>
       </c>
-      <c r="U6" s="18">
-        <v>42435</v>
-      </c>
-      <c r="V6" s="18">
+      <c r="U6" s="10">
+        <v>9.9984999999999999</v>
+      </c>
+      <c r="V6" s="8">
         <v>0.47</v>
       </c>
-      <c r="W6" s="18">
-        <v>1711.1</v>
-      </c>
-      <c r="X6" s="18">
+      <c r="W6" s="10">
+        <v>9.9995999999999992</v>
+      </c>
+      <c r="X6" s="8">
         <v>17.02</v>
       </c>
       <c r="Y6" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8">
         <v>0.44</v>
       </c>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18">
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8">
         <v>16.920000000000002</v>
       </c>
-      <c r="AE6" s="18"/>
+      <c r="AE6" s="8"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="8">
         <v>1.69</v>
       </c>
-      <c r="C7" s="18">
-        <v>84.367099999999994</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C7" s="10">
+        <v>0.50109999999999999</v>
+      </c>
+      <c r="D7" s="8">
         <v>0.1</v>
       </c>
-      <c r="E7" s="18">
-        <v>366.8571</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="E7" s="10">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="F7" s="8">
         <v>4.29</v>
       </c>
       <c r="G7" s="11">
-        <v>1.1271</v>
-      </c>
-      <c r="H7" s="12">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="H7" s="5">
         <v>1.82</v>
       </c>
-      <c r="I7" s="18">
-        <v>3709.2</v>
-      </c>
-      <c r="J7" s="18">
+      <c r="I7" s="10">
+        <v>22.924299999999999</v>
+      </c>
+      <c r="J7" s="8">
         <v>0.08</v>
       </c>
-      <c r="K7" s="18">
-        <v>8586.7999999999993</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="K7" s="10">
+        <v>14.6854</v>
+      </c>
+      <c r="L7" s="8">
         <v>4.24</v>
       </c>
       <c r="M7" s="11">
-        <v>7400</v>
-      </c>
-      <c r="N7" s="12">
+        <v>15.5</v>
+      </c>
+      <c r="N7" s="5">
         <v>2.02</v>
       </c>
-      <c r="O7" s="18">
-        <v>432.26</v>
-      </c>
-      <c r="P7" s="18">
+      <c r="O7" s="10">
+        <v>2.6181000000000001</v>
+      </c>
+      <c r="P7" s="8">
         <v>0.09</v>
       </c>
-      <c r="Q7" s="18">
-        <v>74.53</v>
-      </c>
-      <c r="R7" s="18">
+      <c r="Q7" s="10">
+        <v>0.1799</v>
+      </c>
+      <c r="R7" s="8">
         <v>4.24</v>
       </c>
       <c r="S7" s="11">
         <v>0</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="8">
         <v>1.47</v>
       </c>
-      <c r="U7" s="18">
-        <v>11011</v>
-      </c>
-      <c r="V7" s="18">
+      <c r="U7" s="10">
+        <v>9.9984999999999999</v>
+      </c>
+      <c r="V7" s="8">
         <v>0.11</v>
       </c>
-      <c r="W7" s="18">
-        <v>1469.2</v>
-      </c>
-      <c r="X7" s="18">
+      <c r="W7" s="10">
+        <v>9.9951000000000008</v>
+      </c>
+      <c r="X7" s="8">
         <v>4.2699999999999996</v>
       </c>
-      <c r="Y7" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="12">
+      <c r="Y7" s="12">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="5">
         <v>1.39</v>
       </c>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18">
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8">
         <v>0.1</v>
       </c>
-      <c r="AC7" s="18"/>
-      <c r="AD7" s="18">
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8">
         <v>4.3099999999999996</v>
       </c>
-      <c r="AE7" s="18"/>
+      <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="8">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C8" s="18">
-        <v>14.527799999999999</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="10">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="D8" s="8">
         <v>0.02</v>
       </c>
-      <c r="E8" s="18">
-        <v>256.8922</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="E8" s="10">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="F8" s="8">
         <v>1.08</v>
       </c>
       <c r="G8" s="11">
-        <v>0.31219999999999998</v>
-      </c>
-      <c r="H8" s="12">
+        <v>0.13950000000000001</v>
+      </c>
+      <c r="H8" s="5">
         <v>0.6</v>
       </c>
-      <c r="I8" s="18">
-        <v>1169.5999999999999</v>
-      </c>
-      <c r="J8" s="18">
+      <c r="I8" s="10">
+        <v>13.418799999999999</v>
+      </c>
+      <c r="J8" s="8">
         <v>0.02</v>
       </c>
-      <c r="K8" s="18">
-        <v>3096.1</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="K8" s="10">
+        <v>6.9577999999999998</v>
+      </c>
+      <c r="L8" s="8">
         <v>1.0900000000000001</v>
       </c>
       <c r="M8" s="11">
-        <v>2050</v>
-      </c>
-      <c r="N8" s="12">
+        <v>8</v>
+      </c>
+      <c r="N8" s="5">
         <v>0.64</v>
       </c>
-      <c r="O8" s="18">
-        <v>429.67</v>
-      </c>
-      <c r="P8" s="18">
+      <c r="O8" s="10">
+        <v>2.9354</v>
+      </c>
+      <c r="P8" s="8">
         <v>0.02</v>
       </c>
-      <c r="Q8" s="18">
-        <v>778.55</v>
-      </c>
-      <c r="R8" s="18">
+      <c r="Q8" s="10">
+        <v>0.8972</v>
+      </c>
+      <c r="R8" s="8">
         <v>1.08</v>
       </c>
       <c r="S8" s="11">
         <v>0</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="8">
         <v>0.51</v>
       </c>
-      <c r="U8" s="18">
-        <v>2718.2</v>
-      </c>
-      <c r="V8" s="18">
+      <c r="U8" s="10">
+        <v>10.000299999999999</v>
+      </c>
+      <c r="V8" s="8">
         <v>0.02</v>
       </c>
-      <c r="W8" s="18">
-        <v>1071.0999999999999</v>
-      </c>
-      <c r="X8" s="18">
+      <c r="W8" s="10">
+        <v>10.128500000000001</v>
+      </c>
+      <c r="X8" s="8">
         <v>1.08</v>
       </c>
-      <c r="Y8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12">
+      <c r="Y8" s="12">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="5">
         <v>0.49</v>
       </c>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18">
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8">
         <v>0.02</v>
       </c>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18">
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AE8" s="18"/>
+      <c r="AE8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7771,6 +8816,6 @@
     <mergeCell ref="R2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>